--- a/config_5.11/act_ty_hlqjd_config.xlsx
+++ b/config_5.11/act_ty_hlqjd_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -22,11 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+  <si>
+    <t>line|行号</t>
+  </si>
   <si>
     <t>condiy_key|平台权限</t>
   </si>
   <si>
+    <t>beginTime|开始时间</t>
+  </si>
+  <si>
+    <t>endTime|结束时间</t>
+  </si>
+  <si>
     <t>config|拥有的配置</t>
   </si>
   <si>
@@ -39,7 +43,22 @@
     <t>cpl_cjj</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_hlqjd_ty_hlqjd_v1</t>
+    <t>condi_key|权限</t>
+  </si>
+  <si>
+    <t>task_id|任务ID</t>
+  </si>
+  <si>
+    <t>shop_ids|礼包ID</t>
+  </si>
+  <si>
+    <t>egg_award_ids|奖励ID</t>
+  </si>
+  <si>
+    <t>item|消耗道具</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v1</t>
   </si>
   <si>
     <t>1000383,1000384,1000385</t>
@@ -51,7 +70,7 @@
     <t>"prop_brass_hammer_1","prop_silver_hammer_1","prop_gold_hammer_1"</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_hlqjd_ty_hlqjd_v4</t>
+    <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v4</t>
   </si>
   <si>
     <t>10305,10306,10307</t>
@@ -63,7 +82,7 @@
     <t>"prop_brass_hammer_2","prop_silver_hammer_2","prop_gold_hammer_2"</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_hlqjd_ty_hlqjd_v8</t>
+    <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v8</t>
   </si>
   <si>
     <t>10308,10309,10310</t>
@@ -75,6 +94,12 @@
     <t>"prop_brass_hammer_3","prop_silver_hammer_3","prop_gold_hammer_3"</t>
   </si>
   <si>
+    <t>shop_id|礼包id</t>
+  </si>
+  <si>
+    <t>icon|礼包内容</t>
+  </si>
+  <si>
     <t>"pay_icon_gold2","com_award_icon_cz4"</t>
   </si>
   <si>
@@ -84,6 +109,15 @@
     <t>"pay_icon_gold2","com_award_icon_cz2"</t>
   </si>
   <si>
+    <t>id|奖励ID</t>
+  </si>
+  <si>
+    <t>text|奖励描述</t>
+  </si>
+  <si>
+    <t>image|奖励图片</t>
+  </si>
+  <si>
     <t>"1","8万-50万","18万-100万"</t>
   </si>
   <si>
@@ -127,77 +161,19 @@
   </si>
   <si>
     <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold11"</t>
-  </si>
-  <si>
-    <t>line|行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text|奖励描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|奖励ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image|奖励图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_id|礼包id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|礼包内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condi_key|权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_id|任务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_ids|礼包ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg_award_ids|奖励ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item|消耗道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|行号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginTime|开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTime|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +182,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +335,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,9 +534,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -244,24 +786,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,19 +1105,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -539,29 +1125,29 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1620691200</v>
@@ -570,15 +1156,15 @@
         <v>1621267199</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1620691200</v>
@@ -587,24 +1173,25 @@
         <v>1621267199</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
@@ -613,118 +1200,119 @@
     <col min="6" max="6" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -732,10 +1320,10 @@
         <v>10302</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -743,10 +1331,10 @@
         <v>10303</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -754,10 +1342,10 @@
         <v>10304</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -765,10 +1353,10 @@
         <v>10305</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -776,10 +1364,10 @@
         <v>10306</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -787,10 +1375,10 @@
         <v>10307</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -798,10 +1386,10 @@
         <v>10308</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -809,10 +1397,10 @@
         <v>10309</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -820,44 +1408,45 @@
         <v>10310</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -879,13 +1468,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -893,13 +1482,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -907,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -921,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -935,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -949,13 +1538,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -963,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -977,14 +1566,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/act_ty_hlqjd_config.xlsx
+++ b/config_5.11/act_ty_hlqjd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,10 @@
     <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v1</t>
   </si>
   <si>
-    <t>1000383,1000384,1000385</t>
-  </si>
-  <si>
-    <t>10302,10303,10304</t>
+    <t>1000609,1000610,1000611</t>
+  </si>
+  <si>
+    <t>10535,10536,10537</t>
   </si>
   <si>
     <t>"prop_brass_hammer_1","prop_silver_hammer_1","prop_gold_hammer_1"</t>
@@ -73,7 +73,7 @@
     <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v4</t>
   </si>
   <si>
-    <t>10305,10306,10307</t>
+    <t>10538,10539,10540</t>
   </si>
   <si>
     <t>4,5,6</t>
@@ -85,7 +85,7 @@
     <t>actp_buy_gift_bag_class_hlqjd_029_hlqjd_v8</t>
   </si>
   <si>
-    <t>10308,10309,10310</t>
+    <t>10541,10542,10543</t>
   </si>
   <si>
     <t>7,8,9</t>
@@ -168,9 +168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -183,6 +183,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -197,15 +204,100 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,100 +325,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,31 +341,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,151 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +540,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,45 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +785,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1113,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1187,15 +1184,15 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
-    <col min="4" max="4" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
     <col min="6" max="6" width="60.125" customWidth="1"/>
   </cols>
@@ -1210,7 +1207,7 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">

--- a/config_5.11/act_ty_hlqjd_config.xlsx
+++ b/config_5.11/act_ty_hlqjd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>line|行号</t>
   </si>
@@ -97,16 +97,34 @@
     <t>shop_id|礼包id</t>
   </si>
   <si>
-    <t>icon|礼包内容</t>
+    <t>icon|礼包内容(客户端图片）</t>
   </si>
   <si>
     <t>"pay_icon_gold2","com_award_icon_cz4"</t>
   </si>
   <si>
-    <t>"pay_icon_gold2","com_award_icon_cz31"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold2","com_award_icon_cz2"</t>
+    <t>"pay_icon_gold3","com_award_icon_cz31"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold4","com_award_icon_cz2"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold4","com_award_icon_cz4"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold5","com_award_icon_cz31"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold6","com_award_icon_cz2"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold5","com_award_icon_cz4"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold6","com_award_icon_cz31"</t>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","com_award_icon_cz2"</t>
   </si>
   <si>
     <t>id|奖励ID</t>
@@ -115,7 +133,7 @@
     <t>text|奖励描述</t>
   </si>
   <si>
-    <t>image|奖励图片</t>
+    <t>image|奖励图片（客户端图片）</t>
   </si>
   <si>
     <t>"1","8万-50万","18万-100万"</t>
@@ -127,40 +145,34 @@
     <t>"1~5","10万-100万","25万-200万"</t>
   </si>
   <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold4"</t>
+    <t>"ty_icon_flq2","pay_icon_gold3","pay_icon_gold4"</t>
   </si>
   <si>
     <t>"2~10","15万-150万","50万-300万"</t>
   </si>
   <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold5"</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold6"</t>
+    <t>"ty_icon_flq2","pay_icon_gold3","pay_icon_gold5"</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2","pay_icon_gold4","pay_icon_gold5"</t>
   </si>
   <si>
     <t>"4~20","30万-200万","100万-500万"</t>
   </si>
   <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold7"</t>
+    <t>"ty_icon_flq2","pay_icon_gold5","pay_icon_gold6"</t>
   </si>
   <si>
     <t>"5~30","60万-500万","180万-1000万"</t>
   </si>
   <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold8"</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold9"</t>
-  </si>
-  <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold10"</t>
+    <t>"ty_icon_flq2","pay_icon_gold6","pay_icon_gold7"</t>
   </si>
   <si>
     <t>"8~50","120万-1000万","500万-3000万"</t>
   </si>
   <si>
-    <t>"ty_icon_flq2","pay_icon_gold2","pay_icon_gold11"</t>
+    <t>"ty_icon_flq2","pay_icon_gold7","pay_icon_gold8"</t>
   </si>
 </sst>
 </file>
@@ -168,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -183,6 +195,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -190,15 +224,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,16 +283,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,36 +301,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,8 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,47 +324,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -341,181 +353,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +538,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,54 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1184,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1289,7 +1301,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1314,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10302</v>
+        <v>10535</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1325,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10303</v>
+        <v>10536</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1336,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10304</v>
+        <v>10537</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1347,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10305</v>
+        <v>10538</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1358,10 +1370,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10306</v>
+        <v>10539</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1369,10 +1381,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10307</v>
+        <v>10540</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1380,10 +1392,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10308</v>
+        <v>10541</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1391,10 +1403,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10309</v>
+        <v>10542</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1402,10 +1414,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10310</v>
+        <v>10543</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1432,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1434,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1451,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1465,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1479,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1493,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1507,10 +1519,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1521,10 +1533,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1535,10 +1547,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1549,10 +1561,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1563,10 +1575,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.11/act_ty_hlqjd_config.xlsx
+++ b/config_5.11/act_ty_hlqjd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>line|行号</t>
   </si>
@@ -100,31 +100,13 @@
     <t>icon|礼包内容(客户端图片）</t>
   </si>
   <si>
-    <t>"pay_icon_gold2","com_award_icon_cz4"</t>
+    <t>"pay_icon_gold4","com_award_icon_cz4"</t>
   </si>
   <si>
     <t>"pay_icon_gold3","com_award_icon_cz31"</t>
   </si>
   <si>
-    <t>"pay_icon_gold4","com_award_icon_cz2"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold4","com_award_icon_cz4"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","com_award_icon_cz31"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold6","com_award_icon_cz2"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold5","com_award_icon_cz4"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold6","com_award_icon_cz31"</t>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","com_award_icon_cz2"</t>
+    <t>"pay_icon_gold2","com_award_icon_cz2"</t>
   </si>
   <si>
     <t>id|奖励ID</t>
@@ -194,6 +176,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -201,8 +223,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,65 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -284,57 +307,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -353,181 +335,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,11 +523,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,71 +620,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1104,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -1197,7 +1179,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1300,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1362,7 +1344,7 @@
         <v>10538</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1373,7 +1355,7 @@
         <v>10539</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1384,7 +1366,7 @@
         <v>10540</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1395,7 +1377,7 @@
         <v>10541</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1406,7 +1388,7 @@
         <v>10542</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1417,7 +1399,7 @@
         <v>10543</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1414,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1446,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1463,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1477,10 +1459,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1491,10 +1473,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1505,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1519,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1533,10 +1515,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1547,10 +1529,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1561,10 +1543,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1575,10 +1557,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
